--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3796B8E-67C9-B74E-A5C7-696B63A3D9B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262A3380-F132-274F-8FD3-D86FA74B4719}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>article</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>article_wordlimit</t>
   </si>
   <si>
-    <t>letter</t>
-  </si>
-  <si>
     <t>letter_limit</t>
   </si>
   <si>
@@ -55,6 +49,9 @@
   </si>
   <si>
     <t>AMERICAN JOURNAL OF POLITICAL SCIENCE</t>
+  </si>
+  <si>
+    <t>https://ajps.org/guidelines-for-manuscripts/manuscript-preparation/</t>
   </si>
 </sst>
 </file>
@@ -417,25 +414,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="49.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -444,52 +439,47 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12000</v>
+      </c>
+      <c r="C2">
+        <v>4000</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="E2">
+        <v>20190406</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>12000</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>4000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>20190406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="E3">
+        <v>20190903</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{F2260C3F-4BE2-7F41-B331-8F6C5BA48B38}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{F2260C3F-4BE2-7F41-B331-8F6C5BA48B38}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{99EAA63A-BADD-544B-B9EC-CD4DE4D7D64F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262A3380-F132-274F-8FD3-D86FA74B4719}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B023B5-F3D4-574C-B3E8-8E8EC57EF02D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>article_wordlimit</t>
   </si>
@@ -52,6 +52,27 @@
   </si>
   <si>
     <t>https://ajps.org/guidelines-for-manuscripts/manuscript-preparation/</t>
+  </si>
+  <si>
+    <t>12,000 words</t>
+  </si>
+  <si>
+    <t>10,000 words</t>
+  </si>
+  <si>
+    <t>4,000 words</t>
+  </si>
+  <si>
+    <t>JOURNAL OF POLITICS</t>
+  </si>
+  <si>
+    <t>https://www.journals.uchicago.edu/journals/jop/instruct</t>
+  </si>
+  <si>
+    <t>35 pages</t>
+  </si>
+  <si>
+    <t>10 pages</t>
   </si>
 </sst>
 </file>
@@ -414,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,11 +470,11 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>12000</v>
-      </c>
-      <c r="C2">
-        <v>4000</v>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -466,13 +487,30 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>10000</v>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3">
+        <v>20190903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
         <v>20190903</v>
       </c>
     </row>
@@ -480,6 +518,7 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F2260C3F-4BE2-7F41-B331-8F6C5BA48B38}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{99EAA63A-BADD-544B-B9EC-CD4DE4D7D64F}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{719B026B-6B4F-0E4F-A567-5C3ED7496B9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B023B5-F3D4-574C-B3E8-8E8EC57EF02D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E50FD-2710-FB4E-9CB4-BF0B8881DAD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>article_wordlimit</t>
   </si>
@@ -73,6 +73,36 @@
   </si>
   <si>
     <t>10 pages</t>
+  </si>
+  <si>
+    <t>JOURNAL OF EUROPEAN PUBLIC POLICY</t>
+  </si>
+  <si>
+    <t>8,000 words</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=rjpp20</t>
+  </si>
+  <si>
+    <t>review_limit</t>
+  </si>
+  <si>
+    <t>5,000 words</t>
+  </si>
+  <si>
+    <t>COMPARATIVE POLITICAL STUDIES</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/comparative-political-studies#submission-guidelines</t>
+  </si>
+  <si>
+    <t>8,500 words</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/14685965/homepage/forauthors.html#1.3</t>
+  </si>
+  <si>
+    <t>JCMS-Journal of Common Market Studies</t>
   </si>
 </sst>
 </file>
@@ -435,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +479,7 @@
     <col min="4" max="4" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -460,13 +490,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -476,28 +509,28 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>20190406</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>20190903</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -507,18 +540,69 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>20190903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>20190903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>20190903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
         <v>20190903</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{F2260C3F-4BE2-7F41-B331-8F6C5BA48B38}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{99EAA63A-BADD-544B-B9EC-CD4DE4D7D64F}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{719B026B-6B4F-0E4F-A567-5C3ED7496B9D}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{F2260C3F-4BE2-7F41-B331-8F6C5BA48B38}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{99EAA63A-BADD-544B-B9EC-CD4DE4D7D64F}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{719B026B-6B4F-0E4F-A567-5C3ED7496B9D}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{2EB42F38-EA8D-1E45-9B70-CBF3FE8D15F2}"/>
+    <hyperlink ref="E6" r:id="rId5" location="submission-guidelines" xr:uid="{30DCA721-0E8A-3349-A476-8481849BF3A7}"/>
+    <hyperlink ref="E7" r:id="rId6" location="1.3" xr:uid="{9BB5552B-478B-F645-8090-1DF0F49F9062}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E50FD-2710-FB4E-9CB4-BF0B8881DAD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A907F6-75CD-ED44-BC7B-37BA9D1A661B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
-    <t>article_wordlimit</t>
-  </si>
-  <si>
-    <t>letter_limit</t>
-  </si>
-  <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=rjpp20</t>
   </si>
   <si>
-    <t>review_limit</t>
-  </si>
-  <si>
     <t>5,000 words</t>
   </si>
   <si>
@@ -103,6 +94,15 @@
   </si>
   <si>
     <t>JCMS-Journal of Common Market Studies</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>review</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,36 +481,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>20190406</v>
@@ -518,13 +518,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>20190903</v>
@@ -532,16 +532,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>20190903</v>
@@ -549,16 +549,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F5">
         <v>20190903</v>
@@ -566,13 +566,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>20190903</v>
@@ -580,16 +580,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>20190903</v>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A907F6-75CD-ED44-BC7B-37BA9D1A661B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DAC4A7-9E8A-D14D-8CE7-B5D7DCAD6A32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -103,6 +103,102 @@
   </si>
   <si>
     <t>review</t>
+  </si>
+  <si>
+    <t>BRITISH JOURNAL OF POLITICAL SCIENCE</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/british-journal-of-political-science/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>JOURNAL OF DEMOCRACY</t>
+  </si>
+  <si>
+    <t>6,500 words</t>
+  </si>
+  <si>
+    <t>https://www.journalofdemocracy.org/about/submissions/</t>
+  </si>
+  <si>
+    <t>PARTY POLITICS</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/party-politics#submission-guidelines</t>
+  </si>
+  <si>
+    <t>WEST EUROPEAN POLITICS</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=fwep20#Word_limits</t>
+  </si>
+  <si>
+    <t>3,000 words</t>
+  </si>
+  <si>
+    <t>EUROPEAN JOURNAL OF POLITICAL RESEARCH</t>
+  </si>
+  <si>
+    <t>https://ejpr.onlinelibrary.wiley.com/hub/journal/14756765/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/political-studies/journal202479#submission-guidelines</t>
+  </si>
+  <si>
+    <t>POLITICAL STUDIES</t>
+  </si>
+  <si>
+    <t>ELECTORAL STUDIES</t>
+  </si>
+  <si>
+    <t>https://www.elsevier.com/journals/electoral-studies/0261-3794/guide-for-authors</t>
+  </si>
+  <si>
+    <t>6,000 words</t>
+  </si>
+  <si>
+    <t>GOVERNANCE-AN INTERNATIONAL JOURNAL OF POLICY ADMINISTRATION AND INSTITUTIONS</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/14680491/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>9,000 words</t>
+  </si>
+  <si>
+    <t>Democratization</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?journalCode=fdem20&amp;page=instructions#words</t>
+  </si>
+  <si>
+    <t>POLITICAL BEHAVIOR</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/political+science/journal/11109</t>
+  </si>
+  <si>
+    <t>POLITICAL RESEARCH QUARTERLY</t>
+  </si>
+  <si>
+    <t>http://www.sagepub.com/journals/Journal201839#submission-guidelines</t>
+  </si>
+  <si>
+    <t>WORLD POLITICS</t>
+  </si>
+  <si>
+    <t>12,500 words</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/world-politics/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>POLITICAL ANALYSIS</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/political-analysis/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>30 pages</t>
   </si>
 </sst>
 </file>
@@ -465,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,7 +572,8 @@
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -593,6 +690,215 @@
       </c>
       <c r="F7">
         <v>20190903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <v>20190904</v>
       </c>
     </row>
   </sheetData>
@@ -603,6 +909,19 @@
     <hyperlink ref="E5" r:id="rId4" xr:uid="{2EB42F38-EA8D-1E45-9B70-CBF3FE8D15F2}"/>
     <hyperlink ref="E6" r:id="rId5" location="submission-guidelines" xr:uid="{30DCA721-0E8A-3349-A476-8481849BF3A7}"/>
     <hyperlink ref="E7" r:id="rId6" location="1.3" xr:uid="{9BB5552B-478B-F645-8090-1DF0F49F9062}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{58557368-CF17-0444-9DEA-8CD2B6F2941B}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{C2FFD4EF-599B-C449-80AB-557CD696C3A1}"/>
+    <hyperlink ref="E10" r:id="rId9" location="submission-guidelines" display="https://us.sagepub.com/en-us/nam/journal/party-politics - submission-guidelines" xr:uid="{CE2F52A8-DFFD-D64C-BA12-9BCB57E3C991}"/>
+    <hyperlink ref="E11" r:id="rId10" location="Word_limits" xr:uid="{F2AEBB4E-D0A1-744F-A7C1-C5EB9204BC30}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{0C920FBD-B125-1E4C-BEC0-D4A1CB2E935F}"/>
+    <hyperlink ref="E13" r:id="rId12" location="submission-guidelines" xr:uid="{4266389D-6DDC-4D46-8283-97E4FBD69FF1}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{302AF042-F6E3-DC48-A9A6-0251FEBAE596}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{F69FA89C-C6CF-DE48-8576-FD2DD8ECBF4B}"/>
+    <hyperlink ref="E16" r:id="rId15" location="words" xr:uid="{C76A8A6C-E719-944A-AE82-C9FDC3258135}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{DC43D83C-9F29-BC43-9659-59FA8C791F3F}"/>
+    <hyperlink ref="E18" r:id="rId17" location="submission-guidelines" xr:uid="{36BC3951-0A6C-5943-86A9-141C63A0C309}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{2BBFD154-21AD-3F43-B38D-4941B0F96A9A}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{3147F9F9-2734-BC4D-B4FB-E05478E04ADE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DAC4A7-9E8A-D14D-8CE7-B5D7DCAD6A32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445AFA40-EB32-AC40-8865-D64B7CC2C452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -199,6 +199,69 @@
   </si>
   <si>
     <t>30 pages</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL ORGANIZATION</t>
+  </si>
+  <si>
+    <t>14,000 words</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/international-organization/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>Quarterly Journal of Political Science</t>
+  </si>
+  <si>
+    <t>No limit</t>
+  </si>
+  <si>
+    <t>https://www.nowpublishers.com/Journal/AuthorInstructions/QJPS</t>
+  </si>
+  <si>
+    <t>JOURNAL OF PUBLIC ADMINISTRATION RESEARCH AND THEORY</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jpart/pages/Instructions_To_Authors</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL SECURITY</t>
+  </si>
+  <si>
+    <t>15,000 words</t>
+  </si>
+  <si>
+    <t>https://www.mitpressjournals.org/journals/isec/sub</t>
+  </si>
+  <si>
+    <t>JOURNAL OF CONFLICT RESOLUTION</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/journal-conflict-resolution#submission-guidelines</t>
+  </si>
+  <si>
+    <t>11,000 words</t>
+  </si>
+  <si>
+    <t>PUBLIC ADMINISTRATION REVIEW</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/15406210/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>JOURNAL OF PEACE RESEARCH</t>
+  </si>
+  <si>
+    <t>https://www.prio.org/JPR/SubmissionsAndEnquiries/</t>
+  </si>
+  <si>
+    <t>Journal of Experimental Political Science</t>
+  </si>
+  <si>
+    <t>1,000 words</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/journal-of-experimental-political-science/information/instructions-contributors</t>
   </si>
 </sst>
 </file>
@@ -561,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,6 +961,136 @@
         <v>56</v>
       </c>
       <c r="F20">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28">
         <v>20190904</v>
       </c>
     </row>
@@ -922,6 +1115,14 @@
     <hyperlink ref="E18" r:id="rId17" location="submission-guidelines" xr:uid="{36BC3951-0A6C-5943-86A9-141C63A0C309}"/>
     <hyperlink ref="E19" r:id="rId18" xr:uid="{2BBFD154-21AD-3F43-B38D-4941B0F96A9A}"/>
     <hyperlink ref="E20" r:id="rId19" xr:uid="{3147F9F9-2734-BC4D-B4FB-E05478E04ADE}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{3B7DBB0E-3434-C148-9328-DCFD664025E5}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{B1ABBF71-2E7C-3C42-8295-9261A85AA1BA}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{7E02E398-4DA4-F244-A5CA-7B231F0B4F38}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{F7F9F34E-8B4F-8341-B41F-7F01F6AF2851}"/>
+    <hyperlink ref="E25" r:id="rId24" location="submission-guidelines" xr:uid="{A3EED151-6F6F-DF46-B5C9-18163185E347}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{1B69C742-E8A6-9A4C-8152-4D5C73E97C99}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{4A85B39C-366D-5B45-84B7-891489E0793C}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{433F2C2B-0CE2-A14D-B4FB-907232A9FF98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445AFA40-EB32-AC40-8865-D64B7CC2C452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA3AB1F-70FF-1948-8A97-6BD2799ADAE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -262,6 +262,93 @@
   </si>
   <si>
     <t>https://www.cambridge.org/core/journals/journal-of-experimental-political-science/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>Political Science Research and Methods</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/political-science-research-and-methods/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>LEADERSHIP QUARTERLY</t>
+  </si>
+  <si>
+    <t>https://www.elsevier.com/journals/the-leadership-quarterly/1048-9843/guide-for-authors</t>
+  </si>
+  <si>
+    <t>POLITICAL PSYCHOLOGY</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/14679221/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL STUDIES QUARTERLY</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/isq/pages/General_Instructions</t>
+  </si>
+  <si>
+    <t>LEGISLATIVE STUDIES QUARTERLY</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/19399162/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>POLITICAL COMMUNICATION</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?journalCode=upcp20&amp;page=instructions#words</t>
+  </si>
+  <si>
+    <t>PUBLIC OPINION QUARTERLY</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/poq/pages/general_instructions</t>
+  </si>
+  <si>
+    <t>SECURITY STUDIES</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?journalCode=fsst20&amp;page=instructions#words</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL AFFAIRS</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ia/pages/Author_Guidelines</t>
+  </si>
+  <si>
+    <t>JOURNAL OF THEORETICAL POLITICS</t>
+  </si>
+  <si>
+    <t>7,000 words</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/journal-theoretical-politics#submission-guidelines</t>
+  </si>
+  <si>
+    <t>PUBLIC ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/14679299/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>Political Studies Review</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/political-studies-review/journal202480#submission-guidelines</t>
+  </si>
+  <si>
+    <t>EUROPEAN JOURNAL OF INTERNATIONAL RELATIONS</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/european-journal-international-relations#submission-guidelines</t>
+  </si>
+  <si>
+    <t>International Journal of Press-Politics</t>
+  </si>
+  <si>
+    <t>http://www.sagepub.com/journals/Journal201283#submission-guidelines</t>
   </si>
 </sst>
 </file>
@@ -624,15 +711,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
@@ -1091,6 +1178,220 @@
         <v>78</v>
       </c>
       <c r="F28">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42">
         <v>20190904</v>
       </c>
     </row>
@@ -1123,6 +1424,20 @@
     <hyperlink ref="E26" r:id="rId25" xr:uid="{1B69C742-E8A6-9A4C-8152-4D5C73E97C99}"/>
     <hyperlink ref="E27" r:id="rId26" xr:uid="{4A85B39C-366D-5B45-84B7-891489E0793C}"/>
     <hyperlink ref="E28" r:id="rId27" xr:uid="{433F2C2B-0CE2-A14D-B4FB-907232A9FF98}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{1C010891-C8FD-1840-B359-7A4F7BE623C2}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{5B9DACBC-CC6E-A54E-B8B3-DA61DC1E211D}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{52750698-172A-A742-835B-749E9648C84B}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{19446A3F-E859-BF48-9F17-BB059CE09F0F}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{79DFCC0B-3E8F-804A-9BD8-BB5CF67D8CF0}"/>
+    <hyperlink ref="E34" r:id="rId33" location="words" xr:uid="{D6A71F87-4E45-884E-BBBE-0B3C31228641}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{244E2C4F-A471-5B42-AB8D-A4CE7B2B15CA}"/>
+    <hyperlink ref="E36" r:id="rId35" location="words" xr:uid="{82D2EEC2-0B55-7749-988C-80F25789374B}"/>
+    <hyperlink ref="E37" r:id="rId36" xr:uid="{2CF5F2F6-DA62-E14E-AE6A-AC310F060E0F}"/>
+    <hyperlink ref="E38" r:id="rId37" location="submission-guidelines" xr:uid="{F0BDE04E-50D3-3041-8FFB-87D60926802D}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{8879A29D-DF6E-2E45-A4F8-5D3118A6439F}"/>
+    <hyperlink ref="E40" r:id="rId39" location="submission-guidelines" xr:uid="{E0392E6E-37F3-F547-B660-4CE9CE76B0A3}"/>
+    <hyperlink ref="E41" r:id="rId40" location="submission-guidelines" xr:uid="{229B05DA-4C1B-B34B-ACBB-C7010DA03A31}"/>
+    <hyperlink ref="E42" r:id="rId41" location="submission-guidelines" xr:uid="{2E9EDFB6-E097-B94D-BC05-47E2C3EABC22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA3AB1F-70FF-1948-8A97-6BD2799ADAE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463AF19B-E0B5-9845-A1DF-EE806918CC23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -349,6 +349,60 @@
   </si>
   <si>
     <t>http://www.sagepub.com/journals/Journal201283#submission-guidelines</t>
+  </si>
+  <si>
+    <t>SCANDINAVIAN POLITICAL STUDIES</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/14679477/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>Journal of Elections, Public Opinion and Parties</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?journalCode=fbep20&amp;page=instructions</t>
+  </si>
+  <si>
+    <t>COMPARATIVE POLITICS</t>
+  </si>
+  <si>
+    <t>https://jcp.gc.cuny.edu/submission/style-sheet/</t>
+  </si>
+  <si>
+    <t>EUROPEAN UNION POLITICS</t>
+  </si>
+  <si>
+    <t>2,000 words</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/european-union-politics#submission-guidelines</t>
+  </si>
+  <si>
+    <t>Political Research Exchange</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=prxx20</t>
+  </si>
+  <si>
+    <t>AMERICAN POLITICS RESEARCH</t>
+  </si>
+  <si>
+    <t>25 pages</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/american-politics-research#submission-guidelines</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=rrep20</t>
+  </si>
+  <si>
+    <t>Representation: Journal of Representative Democracy</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL POLITICAL SCIENCE REVIEW</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/international-political-science-review#submission-guidelines</t>
   </si>
 </sst>
 </file>
@@ -711,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1393,6 +1447,151 @@
       </c>
       <c r="F42">
         <v>20190904</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43">
+        <v>20190904</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50">
+        <v>20190905</v>
       </c>
     </row>
   </sheetData>
@@ -1438,6 +1637,14 @@
     <hyperlink ref="E40" r:id="rId39" location="submission-guidelines" xr:uid="{E0392E6E-37F3-F547-B660-4CE9CE76B0A3}"/>
     <hyperlink ref="E41" r:id="rId40" location="submission-guidelines" xr:uid="{229B05DA-4C1B-B34B-ACBB-C7010DA03A31}"/>
     <hyperlink ref="E42" r:id="rId41" location="submission-guidelines" xr:uid="{2E9EDFB6-E097-B94D-BC05-47E2C3EABC22}"/>
+    <hyperlink ref="E43" r:id="rId42" xr:uid="{73D3BB6B-44A2-2F41-9FAA-7254AB445987}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{4B345258-0B77-3A4F-A935-9EEC39DE8C10}"/>
+    <hyperlink ref="E45" r:id="rId44" xr:uid="{0D7E1F1C-DDD0-0946-BC83-DDDF2D46B311}"/>
+    <hyperlink ref="E46" r:id="rId45" location="submission-guidelines" display="https://us.sagepub.com/en-us/nam/journal/european-union-politics - submission-guidelines" xr:uid="{750BF40C-5D8D-0B45-BF0D-70B87EC35FC2}"/>
+    <hyperlink ref="E47" r:id="rId46" xr:uid="{DED9A478-50D6-7444-A3A2-4EEABD88491C}"/>
+    <hyperlink ref="E48" r:id="rId47" location="submission-guidelines" xr:uid="{D48A7C6A-C7A6-3A43-9367-0411BA95816B}"/>
+    <hyperlink ref="E49" r:id="rId48" xr:uid="{B879A8D6-742A-EA4E-8F48-31E281EA68F5}"/>
+    <hyperlink ref="E50" r:id="rId49" location="submission-guidelines" xr:uid="{6502A0FB-440B-364C-B79D-12ED4E7A13EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463AF19B-E0B5-9845-A1DF-EE806918CC23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE39DE8-D6EF-3349-806F-02DB29C8C843}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="160">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -403,6 +403,108 @@
   </si>
   <si>
     <t>https://us.sagepub.com/en-us/nam/journal/international-political-science-review#submission-guidelines</t>
+  </si>
+  <si>
+    <t>Acta Politica</t>
+  </si>
+  <si>
+    <t>https://www.palgrave.com/gp/journal/41269/authors/presentation-formatting</t>
+  </si>
+  <si>
+    <t>Comparative European Politics</t>
+  </si>
+  <si>
+    <t>https://www.palgrave.com/gp/journal/41295/authors/presentation-formatting</t>
+  </si>
+  <si>
+    <t>EUROPE-ASIA STUDIES</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?journalCode=ceas20&amp;page=instructions#Wordlimits</t>
+  </si>
+  <si>
+    <t>East European Politics</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=fjcs21#words</t>
+  </si>
+  <si>
+    <t>EAST EUROPEAN POLITICS AND SOCIETIES</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/east-european-politics-and-societies/journal201655#submission-guidelines</t>
+  </si>
+  <si>
+    <t>European Political Science Review</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/european-political-science-review/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>GOVERNMENT AND OPPOSITION</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/services/aop-file-manager/file/575acf4e948458cc2f2e901e/GOV-ifc.pdf</t>
+  </si>
+  <si>
+    <t>The Journal of Legislative Studies</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?journalCode=fjls20&amp;page=instructions#Word_limits</t>
+  </si>
+  <si>
+    <t>PARLIAMENTARY AFFAIRS</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/pa/pages/general_instructions</t>
+  </si>
+  <si>
+    <t>Perspectives on Politics</t>
+  </si>
+  <si>
+    <t>https://www.apsanet.org/perspectivessubmissions</t>
+  </si>
+  <si>
+    <t>PS: Political Science and Politics</t>
+  </si>
+  <si>
+    <t>3,650 words</t>
+  </si>
+  <si>
+    <t>https://www.apsanet.org/pssubmissions</t>
+  </si>
+  <si>
+    <t>POLITICAL SCIENCE QUARTERLY</t>
+  </si>
+  <si>
+    <t>40 pages</t>
+  </si>
+  <si>
+    <t>https://www.psqonline.org/ArticleSubmissions.cfm</t>
+  </si>
+  <si>
+    <t>Regulation &amp; Governance</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/17485991/homepage/ForAuthors.html</t>
+  </si>
+  <si>
+    <t>RATIONALITY AND SOCIETY</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/rationality-and-society#submission-guidelines</t>
+  </si>
+  <si>
+    <t>POLITICAL GEOGRAPHY</t>
+  </si>
+  <si>
+    <t>https://www.elsevier.com/journals/political-geography/0962-6298/guide-for-authors</t>
+  </si>
+  <si>
+    <t>European Political Science</t>
+  </si>
+  <si>
+    <t>https://www.palgrave.com/gp/journal/41304/authors/presentation-formatting</t>
   </si>
 </sst>
 </file>
@@ -765,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1591,6 +1693,242 @@
         <v>125</v>
       </c>
       <c r="F50">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F63">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F64">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65">
+        <v>20190905</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66">
         <v>20190905</v>
       </c>
     </row>
@@ -1645,6 +1983,22 @@
     <hyperlink ref="E48" r:id="rId47" location="submission-guidelines" xr:uid="{D48A7C6A-C7A6-3A43-9367-0411BA95816B}"/>
     <hyperlink ref="E49" r:id="rId48" xr:uid="{B879A8D6-742A-EA4E-8F48-31E281EA68F5}"/>
     <hyperlink ref="E50" r:id="rId49" location="submission-guidelines" xr:uid="{6502A0FB-440B-364C-B79D-12ED4E7A13EF}"/>
+    <hyperlink ref="E51" r:id="rId50" xr:uid="{59B8BB9E-56C2-E848-A909-C6C5C2932238}"/>
+    <hyperlink ref="E52" r:id="rId51" xr:uid="{7281CC66-793D-1F4A-B74F-453AE2E3D387}"/>
+    <hyperlink ref="E53" r:id="rId52" location="Wordlimits" xr:uid="{FB06D532-19C8-5644-9B6A-DBD9E011BFCB}"/>
+    <hyperlink ref="E54" r:id="rId53" location="words" xr:uid="{C16F2C1E-75F7-9A4D-99D9-D3F9333108A6}"/>
+    <hyperlink ref="E55" r:id="rId54" location="submission-guidelines" xr:uid="{72DB6909-0CF2-9A4A-8788-9E6893494E8D}"/>
+    <hyperlink ref="E56" r:id="rId55" xr:uid="{34C0ACD6-D4F2-B647-96F1-4DF6B8C8BF00}"/>
+    <hyperlink ref="E57" r:id="rId56" xr:uid="{B00FA006-ADA3-E445-9536-834E1790F334}"/>
+    <hyperlink ref="E58" r:id="rId57" location="Word_limits" xr:uid="{3A2E435D-06E9-0A4D-BA33-F9366D1A7707}"/>
+    <hyperlink ref="E59" r:id="rId58" xr:uid="{83E0EA7F-DC34-1B4C-8634-4FCB505A95D0}"/>
+    <hyperlink ref="E60" r:id="rId59" xr:uid="{69E099DD-75C4-5145-B190-4CEDF71DBEE8}"/>
+    <hyperlink ref="E61" r:id="rId60" xr:uid="{D6A24E4D-E387-374E-AD06-FAFE6EC58F90}"/>
+    <hyperlink ref="E62" r:id="rId61" xr:uid="{21078478-4C32-874E-AEFF-0BCA826148F7}"/>
+    <hyperlink ref="E63" r:id="rId62" xr:uid="{C7B4BFE8-9F82-ED4D-AAF7-1231ED57766B}"/>
+    <hyperlink ref="E64" r:id="rId63" location="submission-guidelines" xr:uid="{728183DC-06C6-544A-9F53-D27BB745A064}"/>
+    <hyperlink ref="E65" r:id="rId64" xr:uid="{4C06289D-BFBB-3F40-9D27-CD568F39D71A}"/>
+    <hyperlink ref="E66" r:id="rId65" xr:uid="{C847ED01-1D17-4248-9AF0-C1DE823BB66F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE39DE8-D6EF-3349-806F-02DB29C8C843}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308539D1-9FFF-9147-A9A4-EA136F264BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="210">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -505,6 +505,156 @@
   </si>
   <si>
     <t>https://www.palgrave.com/gp/journal/41304/authors/presentation-formatting</t>
+  </si>
+  <si>
+    <t>Journal of Public Policy</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/journal-of-public-policy/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF SOCIAL WELFARE</t>
+  </si>
+  <si>
+    <t>POLICY STUDIES JOURNAL</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/14682397/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/15410072/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>ENVIRONMENTAL POLITICS</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=fenp20#words</t>
+  </si>
+  <si>
+    <t>REVIEW OF INTERNATIONAL STUDIES</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/review-of-international-studies/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>German Politics</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?journalCode=fgrp20&amp;page=instructions#Word_limits</t>
+  </si>
+  <si>
+    <t>Socio-Economic Review</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ser/pages/Guidelines_For_Authors</t>
+  </si>
+  <si>
+    <t>Politics &amp; Gender</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/politics-and-gender/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>FOOD POLICY</t>
+  </si>
+  <si>
+    <t>https://www.elsevier.com/journals/food-policy/0306-9192/guide-for-authors</t>
+  </si>
+  <si>
+    <t>URBAN AFFAIRS REVIEW</t>
+  </si>
+  <si>
+    <t>5,600 words</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/urban-affairs-review#submission-guidelines</t>
+  </si>
+  <si>
+    <t>SOCIAL SCIENCE RESEARCH</t>
+  </si>
+  <si>
+    <t>https://www.elsevier.com/journals/social-science-research/0049-089X/guide-for-authors</t>
+  </si>
+  <si>
+    <t>JOURNAL OF POLITICAL PHILOSOPHY</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/14679760/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>Journal of Information Technology &amp; Politics</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=witp20#words</t>
+  </si>
+  <si>
+    <t>Journal of European Integration</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=geui20#words</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF PUBLIC OPINION RESEARCH</t>
+  </si>
+  <si>
+    <t>3,500 words</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ijpor/pages/General_Instructions</t>
+  </si>
+  <si>
+    <t>Journal of Youth Studies</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?journalCode=cjys20&amp;page=instructions#words</t>
+  </si>
+  <si>
+    <t>Politics and Religion</t>
+  </si>
+  <si>
+    <t>4,500 words</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/politics-and-religion/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>TERRORISM AND POLITICAL VIOLENCE</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=ftpv20#words</t>
+  </si>
+  <si>
+    <t>LOCAL GOVERNMENT STUDIES</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=flgs20#words</t>
+  </si>
+  <si>
+    <t>VIOLENCE AGAINST WOMEN</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/violence-against-women#submission-guidelines</t>
+  </si>
+  <si>
+    <t>British Politics</t>
+  </si>
+  <si>
+    <t>https://www.palgrave.com/gp/journal/41293/authors/presentation-formatting</t>
+  </si>
+  <si>
+    <t>PUBLIUS-THE JOURNAL OF FEDERALISM</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/publius/pages/Instructions_To_Authors</t>
+  </si>
+  <si>
+    <t>SOCIAL INDICATORS RESEARCH</t>
+  </si>
+  <si>
+    <t>No information</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/social+sciences/sociology/journal/11205?detailsPage=pltci_1064136</t>
   </si>
 </sst>
 </file>
@@ -867,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1930,6 +2080,340 @@
       </c>
       <c r="F66">
         <v>20190905</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F68">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F69">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F73">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F74">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F75">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>181</v>
+      </c>
+      <c r="B77" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F79">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F80">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" t="s">
+        <v>190</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F81">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F82">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>194</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F83">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F84">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F85">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F86">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F87">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88">
+        <v>20190906</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" t="s">
+        <v>208</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F89">
+        <v>20190906</v>
       </c>
     </row>
   </sheetData>
@@ -1999,6 +2483,29 @@
     <hyperlink ref="E64" r:id="rId63" location="submission-guidelines" xr:uid="{728183DC-06C6-544A-9F53-D27BB745A064}"/>
     <hyperlink ref="E65" r:id="rId64" xr:uid="{4C06289D-BFBB-3F40-9D27-CD568F39D71A}"/>
     <hyperlink ref="E66" r:id="rId65" xr:uid="{C847ED01-1D17-4248-9AF0-C1DE823BB66F}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{E9D0A6E0-8349-6649-95C4-4148D0505D86}"/>
+    <hyperlink ref="E68" r:id="rId67" xr:uid="{391AFC29-955B-7B4E-A2EC-DC011A9B7293}"/>
+    <hyperlink ref="E69" r:id="rId68" xr:uid="{2D0B0F12-2410-494F-8999-C425384CB3C9}"/>
+    <hyperlink ref="E70" r:id="rId69" location="words" xr:uid="{45B189CB-23C8-E04C-B100-792EB40451B0}"/>
+    <hyperlink ref="E71" r:id="rId70" xr:uid="{D18BC3E0-3144-BD4D-9A3D-E527C4290C91}"/>
+    <hyperlink ref="E72" r:id="rId71" location="Word_limits" xr:uid="{C966E957-A869-3442-966D-98B84C90E413}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{BD619EE7-F790-CF47-94E8-BB2877B1C41D}"/>
+    <hyperlink ref="E74" r:id="rId73" xr:uid="{F30B0D9A-EE30-A346-937A-D44D7D4926E5}"/>
+    <hyperlink ref="E75" r:id="rId74" xr:uid="{039A7477-70CA-2042-A77C-A1FC3634F8F9}"/>
+    <hyperlink ref="E76" r:id="rId75" location="submission-guidelines" xr:uid="{38AB17D1-4F33-4542-8977-201B557D95D1}"/>
+    <hyperlink ref="E77" r:id="rId76" xr:uid="{B6C6837D-FE55-0A42-89A9-F1CFD97C5637}"/>
+    <hyperlink ref="E78" r:id="rId77" xr:uid="{74D38B14-0FB2-2D48-A0A3-B73E0F511342}"/>
+    <hyperlink ref="E79" r:id="rId78" location="words" xr:uid="{C7650D5F-2F27-0F4B-98B0-36CA9B9CC393}"/>
+    <hyperlink ref="E80" r:id="rId79" location="words" xr:uid="{A9A50B20-1DA8-714B-AA1E-EE1F9ABC8ADA}"/>
+    <hyperlink ref="E81" r:id="rId80" xr:uid="{A457556C-37EE-594C-89B0-EB06407778A0}"/>
+    <hyperlink ref="E82" r:id="rId81" location="words" xr:uid="{E1859768-7096-304B-82C0-3EC49F728CAD}"/>
+    <hyperlink ref="E83" r:id="rId82" xr:uid="{822ED182-DF23-B840-922F-65E845569405}"/>
+    <hyperlink ref="E84" r:id="rId83" location="words" xr:uid="{852ACF1D-FAC9-CD48-BEB8-D7214027C2AF}"/>
+    <hyperlink ref="E85" r:id="rId84" location="words" xr:uid="{69CA6A59-DAA6-6847-ABE0-CFD37A7FDEA3}"/>
+    <hyperlink ref="E86" r:id="rId85" location="submission-guidelines" xr:uid="{A718F9FC-3204-3444-96D2-007BB69090C9}"/>
+    <hyperlink ref="E87" r:id="rId86" xr:uid="{CF9B5CBB-5347-1C41-B98D-68D610C4F8C1}"/>
+    <hyperlink ref="E88" r:id="rId87" xr:uid="{49D24086-CAAE-5D41-AD56-1ACCD52ECEE1}"/>
+    <hyperlink ref="E89" r:id="rId88" xr:uid="{7CB71233-358D-674D-95B5-E32012C6590C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308539D1-9FFF-9147-A9A4-EA136F264BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E42C5B-50BF-5542-8D0B-8095A6CE4783}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="236">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -655,6 +655,84 @@
   </si>
   <si>
     <t>https://www.springer.com/social+sciences/sociology/journal/11205?detailsPage=pltci_1064136</t>
+  </si>
+  <si>
+    <t>HEALTH POLICY</t>
+  </si>
+  <si>
+    <t>https://www.elsevier.com/journals/health-policy/0168-8510/guide-for-authors</t>
+  </si>
+  <si>
+    <t>JOURNAL OF URBAN AFFAIRS</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/14679906/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>PUBLIC CHOICE</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/economics/public+finance/journal/11127?detailsPage=pltci_1406116</t>
+  </si>
+  <si>
+    <t>POLITICAL QUARTERLY</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/1467923x/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>SOCIAL POLICY &amp; ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/14679515/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>Higher Education Policy</t>
+  </si>
+  <si>
+    <t>https://www.palgrave.com/gp/journal/41307/authors/presentation-formatting</t>
+  </si>
+  <si>
+    <t>Social Justice Research</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/psychology/personality+%26+social+psychology/journal/11211?detailsPage=pltci_1706322</t>
+  </si>
+  <si>
+    <t>POLITICAL THEORY</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/political-theory#submission-guidelines</t>
+  </si>
+  <si>
+    <t>Irish Political Studies</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=fips20#words</t>
+  </si>
+  <si>
+    <t>International Journal of Conflict and Violence</t>
+  </si>
+  <si>
+    <t>http://www.ijcv.org/index.php/ijcv/about/submissions</t>
+  </si>
+  <si>
+    <t>SOCIAL SCIENCE JOURNAL</t>
+  </si>
+  <si>
+    <t>https://www.elsevier.com/journals/the-social-science-journal/0362-3319/guide-for-authors</t>
+  </si>
+  <si>
+    <t>British Journal of Politics &amp; International Relations</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/the-british-journal-of-politics-and-international-relations/journal202482#submission-guidelines</t>
+  </si>
+  <si>
+    <t>CONFLICT MANAGEMENT AND PEACE SCIENCE</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/conflict-management-and-peace-science#submission-guidelines</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2414,6 +2492,194 @@
       </c>
       <c r="F89">
         <v>20190906</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>210</v>
+      </c>
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F90">
+        <v>20190907</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F91">
+        <v>20190907</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>214</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F92">
+        <v>20190907</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>216</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F93">
+        <v>20190907</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>218</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F94">
+        <v>20190907</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>220</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F95">
+        <v>20190907</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>222</v>
+      </c>
+      <c r="B96" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F96">
+        <v>20190907</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>224</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F97">
+        <v>20190907</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>226</v>
+      </c>
+      <c r="B98" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F98">
+        <v>20190907</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>228</v>
+      </c>
+      <c r="B99" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F99">
+        <v>20190907</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>230</v>
+      </c>
+      <c r="B100" t="s">
+        <v>120</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F100">
+        <v>20190907</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>232</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F101">
+        <v>20190907</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>234</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F102">
+        <v>20190907</v>
       </c>
     </row>
   </sheetData>
@@ -2506,6 +2772,19 @@
     <hyperlink ref="E87" r:id="rId86" xr:uid="{CF9B5CBB-5347-1C41-B98D-68D610C4F8C1}"/>
     <hyperlink ref="E88" r:id="rId87" xr:uid="{49D24086-CAAE-5D41-AD56-1ACCD52ECEE1}"/>
     <hyperlink ref="E89" r:id="rId88" xr:uid="{7CB71233-358D-674D-95B5-E32012C6590C}"/>
+    <hyperlink ref="E90" r:id="rId89" xr:uid="{F3EC63E3-0F11-474E-B358-10A90920123F}"/>
+    <hyperlink ref="E91" r:id="rId90" xr:uid="{10A8F43E-D46E-0D40-BE9E-E66E9B8D6A7B}"/>
+    <hyperlink ref="E92" r:id="rId91" xr:uid="{045102B7-30B8-0E41-B284-7B4F12C32835}"/>
+    <hyperlink ref="E93" r:id="rId92" xr:uid="{5EB9418E-7117-9346-B470-180126F48587}"/>
+    <hyperlink ref="E94" r:id="rId93" xr:uid="{3AEBF69D-6B41-0F45-9801-A5F5DA34D56B}"/>
+    <hyperlink ref="E95" r:id="rId94" xr:uid="{51BBB707-DF21-FA4A-8413-BAEF99FC796F}"/>
+    <hyperlink ref="E96" r:id="rId95" xr:uid="{66D44447-80F4-B740-82C0-7E715FFF00F3}"/>
+    <hyperlink ref="E97" r:id="rId96" location="submission-guidelines" xr:uid="{5235C929-FA00-2744-B060-88E758BAAC3B}"/>
+    <hyperlink ref="E98" r:id="rId97" location="words" xr:uid="{3702C9E3-8A76-6649-8FE2-442B6FA9B431}"/>
+    <hyperlink ref="E99" r:id="rId98" xr:uid="{EB4FD9DC-652A-4442-BD09-A86B54DB89E6}"/>
+    <hyperlink ref="E100" r:id="rId99" xr:uid="{86BEDED7-7E55-9D47-AF77-AA880E36D678}"/>
+    <hyperlink ref="E101" r:id="rId100" location="submission-guidelines" xr:uid="{5B8CFBA4-DEFA-9042-B1B7-8A8C52CA5032}"/>
+    <hyperlink ref="E102" r:id="rId101" location="submission-guidelines" xr:uid="{443870B5-ABF2-7B42-AC82-8B6BB0190540}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E42C5B-50BF-5542-8D0B-8095A6CE4783}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16A2F8C-EC31-574D-BF3E-15E4AA427750}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="291">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -733,6 +733,171 @@
   </si>
   <si>
     <t>https://us.sagepub.com/en-us/nam/journal/conflict-management-and-peace-science#submission-guidelines</t>
+  </si>
+  <si>
+    <t>Review of International Organizations</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/social+sciences/journal/11558?detailsPage=pltci_1060118</t>
+  </si>
+  <si>
+    <t>Global Environmental Politics</t>
+  </si>
+  <si>
+    <t>https://www.mitpressjournals.org/journals/glep/sub</t>
+  </si>
+  <si>
+    <t>SECURITY DIALOGUE</t>
+  </si>
+  <si>
+    <t>https://www.prio.org/SecurityDialogue/SubmissionsAndEnquiries/</t>
+  </si>
+  <si>
+    <t>POLITICS &amp; SOCIETY</t>
+  </si>
+  <si>
+    <t>http://www.sagepub.com/journals/Journal200925#submission-guidelines</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?journalCode=rrip20&amp;page=instructions#words</t>
+  </si>
+  <si>
+    <t>REVIEW OF INTERNATIONAL POLITICAL ECONOMY</t>
+  </si>
+  <si>
+    <t>International Studies Review</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/isr/pages/General_Instructions</t>
+  </si>
+  <si>
+    <t>Chinese Journal of International Politics</t>
+  </si>
+  <si>
+    <t>20,000 words</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/cjip/pages/General_Instructions</t>
+  </si>
+  <si>
+    <t>POST-SOVIET AFFAIRS</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=rpsa20#words</t>
+  </si>
+  <si>
+    <t>NEW POLITICAL ECONOMY</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=cnpe20#words</t>
+  </si>
+  <si>
+    <t>Territory Politics Governance</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?journalCode=rtep20&amp;page=instructions#Word_limits</t>
+  </si>
+  <si>
+    <t>CHINA QUARTERLY</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/china-quarterly/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>State Politics &amp; Policy Quarterly</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/state-politics-policy-quarterly/journal202001#submission-guidelines</t>
+  </si>
+  <si>
+    <t>Swiss Political Science Review</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/16626370/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL INTERACTIONS</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?journalCode=gini20&amp;page=instructions</t>
+  </si>
+  <si>
+    <t>European Journal of Political Economy</t>
+  </si>
+  <si>
+    <t>https://www.elsevier.com/journals/european-journal-of-political-economy/0176-2680/guide-for-authors</t>
+  </si>
+  <si>
+    <t>Cooperation and Conflict</t>
+  </si>
+  <si>
+    <t>http://www.sagepub.com/journals/Journal200863#submission-guidelines</t>
+  </si>
+  <si>
+    <t>International Theory</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/international-theory/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>Foreign Policy Analysis</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/fpa/pages/General_Instructions</t>
+  </si>
+  <si>
+    <t>MILLENNIUM-JOURNAL OF INTERNATIONAL STUDIES</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/millennium#submission-guidelines</t>
+  </si>
+  <si>
+    <t>GLOBAL GOVERNANCE</t>
+  </si>
+  <si>
+    <t>https://brill.com/view/journals/gg/gg-overview.xml</t>
+  </si>
+  <si>
+    <t>Studies in Conflict &amp; Terrorism</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=uter20#words</t>
+  </si>
+  <si>
+    <t>CRITICAL SOCIAL POLICY</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/critical-social-policy#submission-guidelines</t>
+  </si>
+  <si>
+    <t>Journal of Contemporary China</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=cjcc20#words</t>
+  </si>
+  <si>
+    <t>PHILOSOPHY &amp; PUBLIC AFFAIRS</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/10884963/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>Citizenship Studies</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=ccst20#words</t>
+  </si>
+  <si>
+    <t>WASHINGTON QUARTERLY</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=rwaq20#words</t>
+  </si>
+  <si>
+    <t>Journal of Refugee Studies</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jrs/pages/General_Instructions</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2680,6 +2845,402 @@
       </c>
       <c r="F102">
         <v>20190907</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>236</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F103">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F104">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>240</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F105">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>242</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F106">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>245</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F107">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>246</v>
+      </c>
+      <c r="B108" t="s">
+        <v>67</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F108">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>248</v>
+      </c>
+      <c r="B109" t="s">
+        <v>249</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F109">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>251</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F110">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>253</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F111">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>255</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F112">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>257</v>
+      </c>
+      <c r="B113" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F113">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>259</v>
+      </c>
+      <c r="B114" t="s">
+        <v>150</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F114">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>261</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F115">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>263</v>
+      </c>
+      <c r="B116" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F116">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>265</v>
+      </c>
+      <c r="B117" t="s">
+        <v>208</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F117">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>267</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F118">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>269</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F119">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>271</v>
+      </c>
+      <c r="B120" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F120">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>273</v>
+      </c>
+      <c r="B121" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F121">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>275</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F122">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>277</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F123">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>279</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F124">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>281</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F125">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>283</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F126">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>285</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F127">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>287</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F128">
+        <v>20190908</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>289</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F129">
+        <v>20190908</v>
       </c>
     </row>
   </sheetData>
@@ -2785,6 +3346,33 @@
     <hyperlink ref="E100" r:id="rId99" xr:uid="{86BEDED7-7E55-9D47-AF77-AA880E36D678}"/>
     <hyperlink ref="E101" r:id="rId100" location="submission-guidelines" xr:uid="{5B8CFBA4-DEFA-9042-B1B7-8A8C52CA5032}"/>
     <hyperlink ref="E102" r:id="rId101" location="submission-guidelines" xr:uid="{443870B5-ABF2-7B42-AC82-8B6BB0190540}"/>
+    <hyperlink ref="E103" r:id="rId102" xr:uid="{ED2351D6-A5D3-9840-BC5E-E523A62619B1}"/>
+    <hyperlink ref="E104" r:id="rId103" xr:uid="{CBCEC6D7-CFF2-9F4A-B37C-38BE0DD94F07}"/>
+    <hyperlink ref="E105" r:id="rId104" xr:uid="{DEEA150A-9047-6A4E-BA32-2FA3D24393B8}"/>
+    <hyperlink ref="E106" r:id="rId105" location="submission-guidelines" xr:uid="{6C10CE57-A2A7-BD46-951B-C6866CB8AF9B}"/>
+    <hyperlink ref="E107" r:id="rId106" location="words" xr:uid="{000B2221-ED5C-9A4A-8FE5-11BD74F0E4F9}"/>
+    <hyperlink ref="E108" r:id="rId107" xr:uid="{1D668430-1AA7-C642-9556-3A2BA3EA04AC}"/>
+    <hyperlink ref="E109" r:id="rId108" xr:uid="{78E8F5CD-B566-3140-A8BD-1F63F36ADBD3}"/>
+    <hyperlink ref="E110" r:id="rId109" location="words" xr:uid="{A53B6843-06C5-6942-98BD-2D5DC504455F}"/>
+    <hyperlink ref="E111" r:id="rId110" location="words" xr:uid="{4826662E-73EE-DE49-9278-7FAE8BDB0FF8}"/>
+    <hyperlink ref="E112" r:id="rId111" location="Word_limits" xr:uid="{A87BFFAA-4362-FB49-80FC-8C842D3A116B}"/>
+    <hyperlink ref="E113" r:id="rId112" xr:uid="{6D063936-86DB-0E47-9A2B-DE9CD8BA5913}"/>
+    <hyperlink ref="E114" r:id="rId113" location="submission-guidelines" xr:uid="{010B7163-6E91-3140-8FB9-72120D503414}"/>
+    <hyperlink ref="E115" r:id="rId114" xr:uid="{AAC64C83-0FA4-0240-9BE2-B403D45C14BF}"/>
+    <hyperlink ref="E116" r:id="rId115" xr:uid="{3984F530-ED2B-234F-9610-B7C8E8D30738}"/>
+    <hyperlink ref="E117" r:id="rId116" xr:uid="{3A4947AB-ACF0-BE4D-B83B-77E0A99C2F3A}"/>
+    <hyperlink ref="E118" r:id="rId117" location="submission-guidelines" xr:uid="{24D05CF8-71E9-2D4A-9563-C359FEC7B50C}"/>
+    <hyperlink ref="E119" r:id="rId118" xr:uid="{5A4F05E9-2C51-8E42-9994-590230A8303D}"/>
+    <hyperlink ref="E120" r:id="rId119" xr:uid="{434EC766-5F4D-464A-9AFC-62C48B895268}"/>
+    <hyperlink ref="E121" r:id="rId120" location="submission-guidelines" xr:uid="{C1615D63-1E04-964D-96A0-608D4B797BAC}"/>
+    <hyperlink ref="E122" r:id="rId121" xr:uid="{B7A33F11-04CE-414C-8260-9A4C12D9ED7D}"/>
+    <hyperlink ref="E123" r:id="rId122" location="words" xr:uid="{792B4D57-1C2D-5549-8716-DDD20E4BCF2A}"/>
+    <hyperlink ref="E124" r:id="rId123" location="submission-guidelines" xr:uid="{10F54ACF-5331-4E41-83B7-8202B9420312}"/>
+    <hyperlink ref="E125" r:id="rId124" location="words" xr:uid="{62E6FFB3-8345-ED42-AD50-F8E1F340F1F8}"/>
+    <hyperlink ref="E126" r:id="rId125" xr:uid="{9288B6F4-E295-B04A-998B-D9839B874579}"/>
+    <hyperlink ref="E127" r:id="rId126" location="words" xr:uid="{AE11DD0F-E0C6-E44E-B52F-EC27F4687C95}"/>
+    <hyperlink ref="E128" r:id="rId127" location="words" xr:uid="{23DE4BAA-D9C5-2B4C-9104-26BABBD442FA}"/>
+    <hyperlink ref="E129" r:id="rId128" xr:uid="{5453FAE7-1BD2-5D4F-BCC7-2157562E236C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16A2F8C-EC31-574D-BF3E-15E4AA427750}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBCDAE7-23D6-3740-93B2-49A28894979D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="295">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -898,6 +898,18 @@
   </si>
   <si>
     <t>https://academic.oup.com/jrs/pages/General_Instructions</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/joc/pages/General_Instructions#Submission%20Guidelines</t>
+  </si>
+  <si>
+    <t>JOURNAL OF COMMUNICATION</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/communication-research#submission-guidelines</t>
+  </si>
+  <si>
+    <t>COMMUNICATION RESEARCH</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3241,6 +3253,34 @@
       </c>
       <c r="F129">
         <v>20190908</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>292</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F130">
+        <v>20190918</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>294</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F131">
+        <v>20190918</v>
       </c>
     </row>
   </sheetData>
@@ -3373,6 +3413,8 @@
     <hyperlink ref="E127" r:id="rId126" location="words" xr:uid="{AE11DD0F-E0C6-E44E-B52F-EC27F4687C95}"/>
     <hyperlink ref="E128" r:id="rId127" location="words" xr:uid="{23DE4BAA-D9C5-2B4C-9104-26BABBD442FA}"/>
     <hyperlink ref="E129" r:id="rId128" xr:uid="{5453FAE7-1BD2-5D4F-BCC7-2157562E236C}"/>
+    <hyperlink ref="E130" r:id="rId129" location="Submission%20Guidelines" xr:uid="{FABF0571-A4D5-9940-820E-57F16419C70E}"/>
+    <hyperlink ref="E131" r:id="rId130" location="submission-guidelines" xr:uid="{4725D78F-A57F-FE4C-8C42-119485F303DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBCDAE7-23D6-3740-93B2-49A28894979D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C6019B-F69F-1E4B-BFEF-207EF54D1DDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="297">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -910,6 +910,12 @@
   </si>
   <si>
     <t>COMMUNICATION RESEARCH</t>
+  </si>
+  <si>
+    <t>Research &amp; Politics</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/journal/research-politics#submission-guidelines</t>
   </si>
 </sst>
 </file>
@@ -1272,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3281,6 +3287,23 @@
       </c>
       <c r="F131">
         <v>20190918</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>295</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>115</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F132">
+        <v>20191005</v>
       </c>
     </row>
   </sheetData>
@@ -3415,6 +3438,7 @@
     <hyperlink ref="E129" r:id="rId128" xr:uid="{5453FAE7-1BD2-5D4F-BCC7-2157562E236C}"/>
     <hyperlink ref="E130" r:id="rId129" location="Submission%20Guidelines" xr:uid="{FABF0571-A4D5-9940-820E-57F16419C70E}"/>
     <hyperlink ref="E131" r:id="rId130" location="submission-guidelines" xr:uid="{4725D78F-A57F-FE4C-8C42-119485F303DA}"/>
+    <hyperlink ref="E132" r:id="rId131" location="submission-guidelines" xr:uid="{57DDE689-B0DB-E246-8E7D-558AA3C5D718}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C6019B-F69F-1E4B-BFEF-207EF54D1DDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEEC3DA-DF11-9C41-88A8-EF0E57AD02A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="299">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -916,6 +916,12 @@
   </si>
   <si>
     <t>https://us.sagepub.com/en-us/nam/journal/research-politics#submission-guidelines</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/political-science#author-guidelines</t>
+  </si>
+  <si>
+    <t>Frontiers in Political Science</t>
   </si>
 </sst>
 </file>
@@ -1278,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3304,6 +3310,26 @@
       </c>
       <c r="F132">
         <v>20191005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>298</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F133">
+        <v>20191206</v>
       </c>
     </row>
   </sheetData>
@@ -3439,6 +3465,7 @@
     <hyperlink ref="E130" r:id="rId129" location="Submission%20Guidelines" xr:uid="{FABF0571-A4D5-9940-820E-57F16419C70E}"/>
     <hyperlink ref="E131" r:id="rId130" location="submission-guidelines" xr:uid="{4725D78F-A57F-FE4C-8C42-119485F303DA}"/>
     <hyperlink ref="E132" r:id="rId131" location="submission-guidelines" xr:uid="{57DDE689-B0DB-E246-8E7D-558AA3C5D718}"/>
+    <hyperlink ref="E133" r:id="rId132" location="author-guidelines" xr:uid="{3B4D866F-35E0-3F4C-81D8-61396E370F59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEEC3DA-DF11-9C41-88A8-EF0E57AD02A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387DA9D7-336D-5A46-A3C8-FBF0E9F89B30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="301">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -922,6 +922,12 @@
   </si>
   <si>
     <t>Frontiers in Political Science</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/author-instructions/POL</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3330,6 +3336,20 @@
       </c>
       <c r="F133">
         <v>20191206</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>299</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F134">
+        <v>20191208</v>
       </c>
     </row>
   </sheetData>
@@ -3466,6 +3486,7 @@
     <hyperlink ref="E131" r:id="rId130" location="submission-guidelines" xr:uid="{4725D78F-A57F-FE4C-8C42-119485F303DA}"/>
     <hyperlink ref="E132" r:id="rId131" location="submission-guidelines" xr:uid="{57DDE689-B0DB-E246-8E7D-558AA3C5D718}"/>
     <hyperlink ref="E133" r:id="rId132" location="author-guidelines" xr:uid="{3B4D866F-35E0-3F4C-81D8-61396E370F59}"/>
+    <hyperlink ref="E134" r:id="rId133" xr:uid="{D9F6D1C2-1F90-5B4E-9CBC-B40F8ACC2B5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387DA9D7-336D-5A46-A3C8-FBF0E9F89B30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572358B9-4C73-6648-BD8C-5C7BADEF773A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="303">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -928,6 +928,12 @@
   </si>
   <si>
     <t>https://journals.sagepub.com/author-instructions/POL</t>
+  </si>
+  <si>
+    <t>Politics and the Life Sciences</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/politics-and-the-life-sciences/information/instructions-contributors</t>
   </si>
 </sst>
 </file>
@@ -1290,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3350,6 +3356,26 @@
       </c>
       <c r="F134">
         <v>20191208</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>301</v>
+      </c>
+      <c r="B135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F135">
+        <v>20191227</v>
       </c>
     </row>
   </sheetData>
@@ -3487,6 +3513,7 @@
     <hyperlink ref="E132" r:id="rId131" location="submission-guidelines" xr:uid="{57DDE689-B0DB-E246-8E7D-558AA3C5D718}"/>
     <hyperlink ref="E133" r:id="rId132" location="author-guidelines" xr:uid="{3B4D866F-35E0-3F4C-81D8-61396E370F59}"/>
     <hyperlink ref="E134" r:id="rId133" xr:uid="{D9F6D1C2-1F90-5B4E-9CBC-B40F8ACC2B5D}"/>
+    <hyperlink ref="E135" r:id="rId134" xr:uid="{D6900322-5974-6D4F-B504-EE9B5F10B965}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572358B9-4C73-6648-BD8C-5C7BADEF773A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736ADB0A-3913-494C-9D72-72356E6163E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="305">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -934,6 +934,12 @@
   </si>
   <si>
     <t>https://www.cambridge.org/core/journals/politics-and-the-life-sciences/information/instructions-contributors</t>
+  </si>
+  <si>
+    <t>European Policy Analysis</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/23806567/homepage/forauthors.html</t>
   </si>
 </sst>
 </file>
@@ -1296,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3376,6 +3382,20 @@
       </c>
       <c r="F135">
         <v>20191227</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>303</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F136">
+        <v>20200225</v>
       </c>
     </row>
   </sheetData>
@@ -3514,6 +3534,7 @@
     <hyperlink ref="E133" r:id="rId132" location="author-guidelines" xr:uid="{3B4D866F-35E0-3F4C-81D8-61396E370F59}"/>
     <hyperlink ref="E134" r:id="rId133" xr:uid="{D9F6D1C2-1F90-5B4E-9CBC-B40F8ACC2B5D}"/>
     <hyperlink ref="E135" r:id="rId134" xr:uid="{D6900322-5974-6D4F-B504-EE9B5F10B965}"/>
+    <hyperlink ref="E136" r:id="rId135" xr:uid="{54D6C659-41FF-8849-A5F2-F9398C5C64A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736ADB0A-3913-494C-9D72-72356E6163E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EB198C-F164-F24C-98BA-56A2AFD074FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="307">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -940,6 +940,12 @@
   </si>
   <si>
     <t>https://onlinelibrary.wiley.com/page/journal/23806567/homepage/forauthors.html</t>
+  </si>
+  <si>
+    <t>EUROPEAN SOCIOLOGICAL REVIEW</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/esr/pages/General_Instructions</t>
   </si>
 </sst>
 </file>
@@ -1302,9 +1308,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
       <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
@@ -3396,6 +3402,20 @@
       </c>
       <c r="F136">
         <v>20200225</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>305</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F137">
+        <v>20200416</v>
       </c>
     </row>
   </sheetData>
@@ -3535,6 +3555,7 @@
     <hyperlink ref="E134" r:id="rId133" xr:uid="{D9F6D1C2-1F90-5B4E-9CBC-B40F8ACC2B5D}"/>
     <hyperlink ref="E135" r:id="rId134" xr:uid="{D6900322-5974-6D4F-B504-EE9B5F10B965}"/>
     <hyperlink ref="E136" r:id="rId135" xr:uid="{54D6C659-41FF-8849-A5F2-F9398C5C64A2}"/>
+    <hyperlink ref="E137" r:id="rId136" xr:uid="{55416B20-60A2-0741-B9E9-312DD4DDCA42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Dropbox/web/GitHub/poliscijournals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Documents/poliscijournals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EB198C-F164-F24C-98BA-56A2AFD074FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2C9E40-50FF-9A4B-97AA-FFBDB37976CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="17100" xr2:uid="{51A4E432-F3E5-8944-A4F2-8D984DDB9D07}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="307">
   <si>
     <t>https://www.cambridge.org/core/journals/american-political-science-review/information/instructions-contributors</t>
   </si>
@@ -720,9 +720,6 @@
     <t>SOCIAL SCIENCE JOURNAL</t>
   </si>
   <si>
-    <t>https://www.elsevier.com/journals/the-social-science-journal/0362-3319/guide-for-authors</t>
-  </si>
-  <si>
     <t>British Journal of Politics &amp; International Relations</t>
   </si>
   <si>
@@ -946,6 +943,9 @@
   </si>
   <si>
     <t>https://academic.oup.com/esr/pages/General_Instructions</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=ussj20</t>
   </si>
 </sst>
 </file>
@@ -995,7 +995,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1012,7 +1012,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2807FA76-560D-4145-BA30-BBF62FA6055B}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2857,25 +2857,22 @@
       <c r="B100" t="s">
         <v>120</v>
       </c>
-      <c r="C100" t="s">
-        <v>13</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="F100">
-        <v>20190907</v>
+        <v>20210731</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F101">
         <v>20190907</v>
@@ -2883,13 +2880,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F102">
         <v>20190907</v>
@@ -2897,13 +2894,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B103" t="s">
         <v>208</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F103">
         <v>20190908</v>
@@ -2911,7 +2908,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
@@ -2920,7 +2917,7 @@
         <v>17</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F104">
         <v>20190908</v>
@@ -2928,13 +2925,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F105">
         <v>20190908</v>
@@ -2942,13 +2939,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F106">
         <v>20190908</v>
@@ -2956,13 +2953,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F107">
         <v>20190908</v>
@@ -2970,7 +2967,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B108" t="s">
         <v>67</v>
@@ -2979,7 +2976,7 @@
         <v>8</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F108">
         <v>20190908</v>
@@ -2987,13 +2984,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" t="s">
         <v>248</v>
       </c>
-      <c r="B109" t="s">
+      <c r="E109" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="F109">
         <v>20190908</v>
@@ -3001,13 +2998,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F110">
         <v>20190908</v>
@@ -3015,13 +3012,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F111">
         <v>20190908</v>
@@ -3029,13 +3026,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F112">
         <v>20190908</v>
@@ -3043,7 +3040,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B113" t="s">
         <v>45</v>
@@ -3052,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F113">
         <v>20190908</v>
@@ -3060,13 +3057,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B114" t="s">
         <v>150</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F114">
         <v>20190908</v>
@@ -3074,13 +3071,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F115">
         <v>20190908</v>
@@ -3088,7 +3085,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B116" t="s">
         <v>71</v>
@@ -3097,7 +3094,7 @@
         <v>42</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F116">
         <v>20190908</v>
@@ -3105,13 +3102,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B117" t="s">
         <v>208</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F117">
         <v>20190908</v>
@@ -3119,13 +3116,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F118">
         <v>20190908</v>
@@ -3133,13 +3130,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F119">
         <v>20190908</v>
@@ -3147,7 +3144,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B120" t="s">
         <v>71</v>
@@ -3156,7 +3153,7 @@
         <v>42</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F120">
         <v>20190908</v>
@@ -3164,7 +3161,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B121" t="s">
         <v>45</v>
@@ -3173,7 +3170,7 @@
         <v>17</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F121">
         <v>20190908</v>
@@ -3181,13 +3178,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F122">
         <v>20190908</v>
@@ -3195,13 +3192,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F123">
         <v>20190908</v>
@@ -3209,13 +3206,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F124">
         <v>20190908</v>
@@ -3223,13 +3220,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F125">
         <v>20190908</v>
@@ -3237,13 +3234,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F126">
         <v>20190908</v>
@@ -3251,13 +3248,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F127">
         <v>20190908</v>
@@ -3265,13 +3262,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B128" t="s">
         <v>17</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F128">
         <v>20190908</v>
@@ -3279,13 +3276,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F129">
         <v>20190908</v>
@@ -3293,13 +3290,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F130">
         <v>20190918</v>
@@ -3307,13 +3304,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F131">
         <v>20190918</v>
@@ -3321,7 +3318,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B132" t="s">
         <v>9</v>
@@ -3330,7 +3327,7 @@
         <v>115</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F132">
         <v>20191005</v>
@@ -3338,7 +3335,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
@@ -3350,7 +3347,7 @@
         <v>7</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F133">
         <v>20191206</v>
@@ -3358,13 +3355,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F134">
         <v>20191208</v>
@@ -3372,7 +3369,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B135" t="s">
         <v>67</v>
@@ -3384,7 +3381,7 @@
         <v>8</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F135">
         <v>20191227</v>
@@ -3392,13 +3389,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B136" t="s">
         <v>15</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F136">
         <v>20200225</v>
@@ -3406,13 +3403,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B137" t="s">
         <v>15</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F137">
         <v>20200416</v>
